--- a/sample/sample.xlsx
+++ b/sample/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jellydonuts\playground\excel_comment_orm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458F0E98-1DEC-4EE9-A5C1-228BD178A946}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3C05DC-1111-4509-A5CD-FDDFBE15F97B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13188" windowHeight="8448" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13188" windowHeight="8448" activeTab="1" xr2:uid="{CD521CE3-CB81-4AD2-AA9F-DD3573C62CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,16 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">jellydonuts:
-%%begin eco
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>%%begin eco
 key: first_name
 type: str
 param: {token:0}
@@ -78,7 +87,17 @@
 key: last_name
 type: str
 param: {token:1}
-%%end eco
+%%end eco</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -147,7 +166,12 @@
 validators:
   - {name: more_than, threshold: 0} 
   - {name: less_than, theshold: 0} 
-%%end eco</t>
+%%end eco
+%%begin eco
+key: str_number
+parser: str
+%%end eco
+</t>
         </r>
       </text>
     </comment>
@@ -542,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7754E54E-BC39-409E-80A0-48E318122F1B}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -588,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDBE698-D470-46AC-96B1-DE0D5151A06B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
